--- a/Backend/dist/data.xlsx
+++ b/Backend/dist/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIFR\MATLAB WORKSHOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7DB571-7D3F-4C00-BF05-1B71C0ED6628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7994DAD-BA12-45E9-9443-C093C17461F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,6 +1210,19 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1230,6 +1243,37 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1256,24 +1300,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1294,38 +1320,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1664,9 +1664,9 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{519F8F11-C0EE-4622-B4BA-07B85DD59B51}" name="Column13" headerRowDxfId="6" dataDxfId="1" totalsRowDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{16F3126E-35A4-42E2-ACFE-16F126B29BB7}" name="Column14" headerRowDxfId="4" dataDxfId="0" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{519F8F11-C0EE-4622-B4BA-07B85DD59B51}" name="Column13" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{16F3126E-35A4-42E2-ACFE-16F126B29BB7}" name="Column14" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1928,8 +1928,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="151" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2027,8 +2027,8 @@
         <v>234</v>
       </c>
       <c r="N2" s="30" t="str">
-        <f ca="1">CONCATENATE(LEFT(C2, 3), G2, CHAR(RANDBETWEEN(65, 90)), CHAR(RANDBETWEEN(65, 90)))</f>
-        <v>Shr25LR</v>
+        <f>CONCATENATE(LEFT(C2,3),G2)</f>
+        <v>Shr25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2068,8 +2068,8 @@
         <v>250</v>
       </c>
       <c r="N3" s="30" t="str">
-        <f t="shared" ref="N3:N41" ca="1" si="0">CONCATENATE(LEFT(C3, 3), G3, CHAR(RANDBETWEEN(65, 90)), CHAR(RANDBETWEEN(65, 90)))</f>
-        <v>Atr30DS</v>
+        <f t="shared" ref="N3:N41" si="0">CONCATENATE(LEFT(C3,3),G3)</f>
+        <v>Atr30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2109,8 +2109,8 @@
         <v>251</v>
       </c>
       <c r="N4" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sar71MV</v>
+        <f t="shared" si="0"/>
+        <v>Sar71</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2150,8 +2150,8 @@
         <v>252</v>
       </c>
       <c r="N5" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sah44KN</v>
+        <f t="shared" si="0"/>
+        <v>Sah44</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2191,8 +2191,8 @@
         <v>245</v>
       </c>
       <c r="N6" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>SOU12CQ</v>
+        <f t="shared" si="0"/>
+        <v>SOU12</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2232,8 +2232,8 @@
         <v>253</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shr22QK</v>
+        <f t="shared" si="0"/>
+        <v>Shr22</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2273,8 +2273,8 @@
         <v>254</v>
       </c>
       <c r="N8" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rit65OR</v>
+        <f t="shared" si="0"/>
+        <v>Rit65</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2314,8 +2314,8 @@
         <v>255</v>
       </c>
       <c r="N9" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Nee56GU</v>
+        <f t="shared" si="0"/>
+        <v>Nee56</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2355,8 +2355,8 @@
         <v>256</v>
       </c>
       <c r="N10" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Urm46TG</v>
+        <f t="shared" si="0"/>
+        <v>Urm46</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2396,8 +2396,8 @@
         <v>237</v>
       </c>
       <c r="N11" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sne62LX</v>
+        <f t="shared" si="0"/>
+        <v>Sne62</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2437,8 +2437,8 @@
         <v>247</v>
       </c>
       <c r="N12" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Say56UR</v>
+        <f t="shared" si="0"/>
+        <v>Say56</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2478,8 +2478,8 @@
         <v>240</v>
       </c>
       <c r="N13" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rit46EB</v>
+        <f t="shared" si="0"/>
+        <v>Rit46</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2519,8 +2519,8 @@
         <v>257</v>
       </c>
       <c r="N14" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ARI07MA</v>
+        <f t="shared" si="0"/>
+        <v>ARI07</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2560,8 +2560,8 @@
         <v>258</v>
       </c>
       <c r="N15" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sam28WG</v>
+        <f t="shared" si="0"/>
+        <v>Sam28</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2601,8 +2601,8 @@
         <v>259</v>
       </c>
       <c r="N16" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ari67ON</v>
+        <f t="shared" si="0"/>
+        <v>Ari67</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2642,8 +2642,8 @@
         <v>248</v>
       </c>
       <c r="N17" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>SOU23DU</v>
+        <f t="shared" si="0"/>
+        <v>SOU23</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2683,8 +2683,8 @@
         <v>243</v>
       </c>
       <c r="N18" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sou52ED</v>
+        <f t="shared" si="0"/>
+        <v>Sou52</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2724,8 +2724,8 @@
         <v>238</v>
       </c>
       <c r="N19" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rit58FO</v>
+        <f t="shared" si="0"/>
+        <v>Rit58</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2765,8 +2765,8 @@
         <v>241</v>
       </c>
       <c r="N20" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Jiy47ZU</v>
+        <f t="shared" si="0"/>
+        <v>Jiy47</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2806,8 +2806,8 @@
         <v>244</v>
       </c>
       <c r="N21" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kun7IS</v>
+        <f t="shared" si="0"/>
+        <v>Kun7</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2847,8 +2847,8 @@
         <v>260</v>
       </c>
       <c r="N22" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Deb24VV</v>
+        <f t="shared" si="0"/>
+        <v>Deb24</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2888,8 +2888,8 @@
         <v>261</v>
       </c>
       <c r="N23" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ayu55JX</v>
+        <f t="shared" si="0"/>
+        <v>Ayu55</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2929,8 +2929,8 @@
         <v>235</v>
       </c>
       <c r="N24" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Arp21PZ</v>
+        <f t="shared" si="0"/>
+        <v>Arp21</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2970,8 +2970,8 @@
         <v>262</v>
       </c>
       <c r="N25" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Lax38XA</v>
+        <f t="shared" si="0"/>
+        <v>Lax38</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3011,8 +3011,8 @@
         <v>246</v>
       </c>
       <c r="N26" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ANI54CH</v>
+        <f t="shared" si="0"/>
+        <v>ANI54</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3052,8 +3052,8 @@
         <v>263</v>
       </c>
       <c r="N27" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Tap59PB</v>
+        <f t="shared" si="0"/>
+        <v>Tap59</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3093,8 +3093,8 @@
         <v>264</v>
       </c>
       <c r="N28" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Pra14VZ</v>
+        <f t="shared" si="0"/>
+        <v>Pra14</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3134,8 +3134,8 @@
         <v>236</v>
       </c>
       <c r="N29" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Roh18TC</v>
+        <f t="shared" si="0"/>
+        <v>Roh18</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3175,8 +3175,8 @@
         <v>242</v>
       </c>
       <c r="N30" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Mai24KP</v>
+        <f t="shared" si="0"/>
+        <v>Mai24</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3216,8 +3216,8 @@
         <v>265</v>
       </c>
       <c r="N31" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Swp12QH</v>
+        <f t="shared" si="0"/>
+        <v>Swp12</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3257,8 +3257,8 @@
         <v>266</v>
       </c>
       <c r="N32" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>San49OV</v>
+        <f t="shared" si="0"/>
+        <v>San49</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3298,8 +3298,8 @@
         <v>267</v>
       </c>
       <c r="N33" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Aha18PQ</v>
+        <f t="shared" si="0"/>
+        <v>Aha18</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3339,8 +3339,8 @@
         <v>268</v>
       </c>
       <c r="N34" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ari10JJ</v>
+        <f t="shared" si="0"/>
+        <v>Ari10</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3380,8 +3380,8 @@
         <v>269</v>
       </c>
       <c r="N35" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DEB23HL</v>
+        <f t="shared" si="0"/>
+        <v>DEB23</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3421,8 +3421,8 @@
         <v>270</v>
       </c>
       <c r="N36" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rud45RV</v>
+        <f t="shared" si="0"/>
+        <v>Rud45</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3462,8 +3462,8 @@
         <v>271</v>
       </c>
       <c r="N37" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Avi29CI</v>
+        <f t="shared" si="0"/>
+        <v>Avi29</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3503,8 +3503,8 @@
         <v>239</v>
       </c>
       <c r="N38" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ale36HZ</v>
+        <f t="shared" si="0"/>
+        <v>Ale36</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3544,8 +3544,8 @@
         <v>249</v>
       </c>
       <c r="N39" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Sul51BA</v>
+        <f t="shared" si="0"/>
+        <v>Sul51</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3585,8 +3585,8 @@
         <v>272</v>
       </c>
       <c r="N40" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rah74HF</v>
+        <f t="shared" si="0"/>
+        <v>Rah74</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -3626,8 +3626,8 @@
         <v>273</v>
       </c>
       <c r="N41" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hri81PC</v>
+        <f t="shared" si="0"/>
+        <v>Hri81</v>
       </c>
     </row>
   </sheetData>
